--- a/usercradentials.xlsx
+++ b/usercradentials.xlsx
@@ -35,7 +35,7 @@
     <t>hp-amar</t>
   </si>
   <si>
-    <t>Amar@1234</t>
+    <t>Amar@2025</t>
   </si>
 </sst>
 </file>
@@ -366,9 +366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
